--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.1640473254666</v>
+        <v>173.3222485931881</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.5151213857412</v>
+        <v>237.1471469630417</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.9508712044286</v>
+        <v>214.5141560950687</v>
       </c>
       <c r="AD2" t="n">
-        <v>142164.0473254666</v>
+        <v>173322.2485931881</v>
       </c>
       <c r="AE2" t="n">
-        <v>194515.1213857412</v>
+        <v>237147.1469630417</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.272106013666579e-06</v>
+        <v>5.53165756557329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>175950.8712044285</v>
+        <v>214514.1560950687</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.440399371134</v>
+        <v>128.2694572888464</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.0046943554153</v>
+        <v>175.5039303115968</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.9747726485587</v>
+        <v>158.7540815240203</v>
       </c>
       <c r="AD3" t="n">
-        <v>107440.399371134</v>
+        <v>128269.4572888464</v>
       </c>
       <c r="AE3" t="n">
-        <v>147004.6943554153</v>
+        <v>175503.9303115968</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.030681695186226e-06</v>
+        <v>6.814067392825803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.027006172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>132974.7726485587</v>
+        <v>158754.0815240203</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.6270108458512</v>
+        <v>137.728122176839</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.2600244078406</v>
+        <v>188.4456928981861</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.2057343591386</v>
+        <v>170.4607004532274</v>
       </c>
       <c r="AD2" t="n">
-        <v>107627.0108458512</v>
+        <v>137728.122176839</v>
       </c>
       <c r="AE2" t="n">
-        <v>147260.0244078406</v>
+        <v>188445.6928981861</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.918518340508086e-06</v>
+        <v>6.786054824749481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>133205.7343591386</v>
+        <v>170460.7004532274</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.2154406374513</v>
+        <v>123.3966658337223</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.2239194239691</v>
+        <v>168.8367620703124</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.7457067631994</v>
+        <v>152.7232184622525</v>
       </c>
       <c r="AD3" t="n">
-        <v>103215.4406374513</v>
+        <v>123396.6658337223</v>
       </c>
       <c r="AE3" t="n">
-        <v>141223.9194239691</v>
+        <v>168836.7620703124</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.106987527658484e-06</v>
+        <v>7.11244406824419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>127745.7067631994</v>
+        <v>152723.2184622525</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.57814922644525</v>
+        <v>123.924246064591</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.1424844988042</v>
+        <v>169.5586206173837</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.5309912414153</v>
+        <v>153.3761838427263</v>
       </c>
       <c r="AD2" t="n">
-        <v>96578.14922644525</v>
+        <v>123924.246064591</v>
       </c>
       <c r="AE2" t="n">
-        <v>132142.4844988041</v>
+        <v>169558.6206173837</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.958374065837936e-06</v>
+        <v>7.490095533970459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.910493827160495</v>
       </c>
       <c r="AH2" t="n">
-        <v>119530.9912414153</v>
+        <v>153376.1838427263</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.87086366175531</v>
+        <v>126.1901637980801</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.9112334197304</v>
+        <v>172.6589492255772</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.1309332477835</v>
+        <v>156.1806214398934</v>
       </c>
       <c r="AD2" t="n">
-        <v>97870.86366175531</v>
+        <v>126190.1637980801</v>
       </c>
       <c r="AE2" t="n">
-        <v>133911.2334197304</v>
+        <v>172658.9492255772</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.099048277686952e-06</v>
+        <v>7.467575752037408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.459104938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>121130.9332477835</v>
+        <v>156180.6214398934</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.9205550690445</v>
+        <v>133.4138458248177</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.2934204473849</v>
+        <v>182.5427096609139</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.3313817240313</v>
+        <v>165.1210896512296</v>
       </c>
       <c r="AD2" t="n">
-        <v>106920.5550690445</v>
+        <v>133413.8458248177</v>
       </c>
       <c r="AE2" t="n">
-        <v>146293.4204473849</v>
+        <v>182542.7096609139</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.693974820815588e-06</v>
+        <v>7.239000448383727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>132331.3817240313</v>
+        <v>165121.0896512296</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.9349810358358</v>
+        <v>143.4621005058836</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.5226233928917</v>
+        <v>196.2911750132515</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.7752010901804</v>
+        <v>177.5574207664368</v>
       </c>
       <c r="AD2" t="n">
-        <v>112934.9810358358</v>
+        <v>143462.1005058836</v>
       </c>
       <c r="AE2" t="n">
-        <v>154522.6233928917</v>
+        <v>196291.1750132515</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.750760785302598e-06</v>
+        <v>6.453113444150818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.536265432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>139775.2010901804</v>
+        <v>177557.4207664368</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.1254002174177</v>
+        <v>124.4769027060007</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.468966265862</v>
+        <v>170.3147898156503</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.8719280819366</v>
+        <v>154.0601853140008</v>
       </c>
       <c r="AD3" t="n">
-        <v>104125.4002174177</v>
+        <v>124476.9027060007</v>
       </c>
       <c r="AE3" t="n">
-        <v>142468.966265862</v>
+        <v>170314.7898156503</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.094054223240806e-06</v>
+        <v>7.043743352709244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.073302469135802</v>
       </c>
       <c r="AH3" t="n">
-        <v>128871.9280819366</v>
+        <v>154060.1853140008</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.5822631213191</v>
+        <v>143.4347790786337</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.8812397658625</v>
+        <v>196.2537926311518</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.5269600408911</v>
+        <v>177.5236061064181</v>
       </c>
       <c r="AD2" t="n">
-        <v>117582.2631213191</v>
+        <v>143434.7790786336</v>
       </c>
       <c r="AE2" t="n">
-        <v>160881.2397658625</v>
+        <v>196253.7926311518</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.472153239735616e-06</v>
+        <v>6.960488021202597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.160493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>145526.960040891</v>
+        <v>177523.6061064181</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.96406416814982</v>
+        <v>119.5926571653305</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.7752426980668</v>
+        <v>163.6319495892031</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.7216055002588</v>
+        <v>148.0151459793385</v>
       </c>
       <c r="AD2" t="n">
-        <v>99964.06416814982</v>
+        <v>119592.6571653305</v>
       </c>
       <c r="AE2" t="n">
-        <v>136775.2426980668</v>
+        <v>163631.9495892031</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.136925882982169e-06</v>
+        <v>7.326803140898786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.219907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>123721.6055002588</v>
+        <v>148015.1459793384</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.2095526965251</v>
+        <v>119.8381456937058</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.1111309327792</v>
+        <v>163.9678378239155</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.0254370332724</v>
+        <v>148.3189775123521</v>
       </c>
       <c r="AD3" t="n">
-        <v>100209.5526965251</v>
+        <v>119838.1456937058</v>
       </c>
       <c r="AE3" t="n">
-        <v>137111.1309327792</v>
+        <v>163967.8378239155</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137541621899872e-06</v>
+        <v>7.327893660275688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.219907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>124025.4370332724</v>
+        <v>148318.9775123521</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.9618784128076</v>
+        <v>123.9663513090096</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.2452285187216</v>
+        <v>169.6162308703495</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.6695435513653</v>
+        <v>153.4282958540056</v>
       </c>
       <c r="AD2" t="n">
-        <v>103961.8784128076</v>
+        <v>123966.3513090096</v>
       </c>
       <c r="AE2" t="n">
-        <v>142245.2285187216</v>
+        <v>169616.2308703495</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.029944102567209e-06</v>
+        <v>7.027870623364568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.250771604938271</v>
       </c>
       <c r="AH2" t="n">
-        <v>128669.5435513653</v>
+        <v>153428.2958540056</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0759216584456</v>
+        <v>122.0803945546477</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.664779284865</v>
+        <v>167.0357816364929</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.3353687707039</v>
+        <v>151.0941210733443</v>
       </c>
       <c r="AD3" t="n">
-        <v>102075.9216584456</v>
+        <v>122080.3945546477</v>
       </c>
       <c r="AE3" t="n">
-        <v>139664.779284865</v>
+        <v>167035.7816364929</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.122523454824121e-06</v>
+        <v>7.189320929745246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.131172839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>126335.3687707039</v>
+        <v>151094.1210733443</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.9127416350957</v>
+        <v>166.0917612213493</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.9111238662944</v>
+        <v>227.2540751543069</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.5996060798117</v>
+        <v>205.565265174743</v>
       </c>
       <c r="AD2" t="n">
-        <v>124912.7416350957</v>
+        <v>166091.7612213494</v>
       </c>
       <c r="AE2" t="n">
-        <v>170911.1238662944</v>
+        <v>227254.0751543069</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.428703139877812e-06</v>
+        <v>5.828568095764314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.95679012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>154599.6060798117</v>
+        <v>205565.265174743</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.7629788184623</v>
+        <v>127.4379189747118</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.0778176695648</v>
+        <v>174.3661829053171</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.1363557727259</v>
+        <v>157.724919133357</v>
       </c>
       <c r="AD3" t="n">
-        <v>106762.9788184623</v>
+        <v>127437.9189747118</v>
       </c>
       <c r="AE3" t="n">
-        <v>146077.8176695648</v>
+        <v>174366.1829053171</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.03442234267058e-06</v>
+        <v>6.858250595636708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.061728395061729</v>
       </c>
       <c r="AH3" t="n">
-        <v>132136.3557727259</v>
+        <v>157724.919133357</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.54895023458457</v>
+        <v>127.2027971174539</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.8390213837432</v>
+        <v>174.0444788073729</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.9701744306699</v>
+        <v>157.4339180230059</v>
       </c>
       <c r="AD2" t="n">
-        <v>98548.95023458457</v>
+        <v>127202.7971174539</v>
       </c>
       <c r="AE2" t="n">
-        <v>134839.0213837432</v>
+        <v>174044.4788073729</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118419533751829e-06</v>
+        <v>7.426485001916071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.366512345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>121970.1744306699</v>
+        <v>157433.9180230059</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.8549749986263</v>
+        <v>124.6101364970547</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.5212497329932</v>
+        <v>170.4970861664303</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.8736076532538</v>
+        <v>154.2250835569169</v>
       </c>
       <c r="AD2" t="n">
-        <v>96854.97499862631</v>
+        <v>124610.1364970547</v>
       </c>
       <c r="AE2" t="n">
-        <v>132521.2497329932</v>
+        <v>170497.0861664303</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023001137992752e-06</v>
+        <v>7.505634200396194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.721450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>119873.6076532538</v>
+        <v>154225.0835569169</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.9249543796563</v>
+        <v>132.7401709731134</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.9311956613621</v>
+        <v>181.6209580083757</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.0991657596916</v>
+        <v>164.2873086827227</v>
       </c>
       <c r="AD2" t="n">
-        <v>105924.9543796563</v>
+        <v>132740.1709731134</v>
       </c>
       <c r="AE2" t="n">
-        <v>144931.1956613621</v>
+        <v>181620.9580083757</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.852859812630954e-06</v>
+        <v>7.409192297631357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>131099.1657596916</v>
+        <v>164287.3086827227</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.8130515063181</v>
+        <v>164.3360671607076</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.984188135397</v>
+        <v>224.8518570847827</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.9021884256906</v>
+        <v>203.3923114262392</v>
       </c>
       <c r="AD2" t="n">
-        <v>130813.0515063181</v>
+        <v>164336.0671607076</v>
       </c>
       <c r="AE2" t="n">
-        <v>178984.188135397</v>
+        <v>224851.8570847827</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.106901840275944e-06</v>
+        <v>6.408293627293816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.22530864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>161902.1884256906</v>
+        <v>203392.3114262392</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.5934042262505</v>
+        <v>121.413945675176</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.0045776469692</v>
+        <v>166.1239168779508</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.7381758505299</v>
+        <v>150.2692834075469</v>
       </c>
       <c r="AD2" t="n">
-        <v>101593.4042262505</v>
+        <v>121413.945675176</v>
       </c>
       <c r="AE2" t="n">
-        <v>139004.5776469692</v>
+        <v>166123.9168779508</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.103465792469932e-06</v>
+        <v>7.209627524771383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>125738.1758505299</v>
+        <v>150269.2834075468</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.0843259609888</v>
+        <v>120.9048674099144</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.3080343054906</v>
+        <v>165.4273735364721</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.108109627957</v>
+        <v>149.639217184974</v>
       </c>
       <c r="AD3" t="n">
-        <v>101084.3259609888</v>
+        <v>120904.8674099144</v>
       </c>
       <c r="AE3" t="n">
-        <v>138308.0343054906</v>
+        <v>165427.3735364722</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.134652110335461e-06</v>
+        <v>7.264420655030247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.169753086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>125108.109627957</v>
+        <v>149639.217184974</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.2278178555694</v>
+        <v>150.0015381728156</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.1327603500139</v>
+        <v>205.238722128772</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.5635986605207</v>
+        <v>185.6510265432161</v>
       </c>
       <c r="AD2" t="n">
-        <v>119227.8178555694</v>
+        <v>150001.5381728156</v>
       </c>
       <c r="AE2" t="n">
-        <v>163132.7603500139</v>
+        <v>205238.722128772</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.5732140679941e-06</v>
+        <v>6.109797848734461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>147563.5986605207</v>
+        <v>185651.0265432161</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.1801435902497</v>
+        <v>125.6960466436316</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.9121126805635</v>
+        <v>171.9828763359506</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.1773426282882</v>
+        <v>155.5690719979783</v>
       </c>
       <c r="AD3" t="n">
-        <v>105180.1435902497</v>
+        <v>125696.0466436316</v>
       </c>
       <c r="AE3" t="n">
-        <v>143912.1126805635</v>
+        <v>171982.8763359506</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.074598865661727e-06</v>
+        <v>6.967109977223172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.054012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>130177.3426282882</v>
+        <v>155569.0719979783</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.0549125461943</v>
+        <v>207.7971424921056</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.6259483531111</v>
+        <v>284.3172177204942</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.8560332822894</v>
+        <v>257.1823815030551</v>
       </c>
       <c r="AD2" t="n">
-        <v>159054.9125461943</v>
+        <v>207797.1424921056</v>
       </c>
       <c r="AE2" t="n">
-        <v>217625.9483531111</v>
+        <v>284317.2177204942</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.502993574440374e-06</v>
+        <v>5.365068084991102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57098765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>196856.0332822894</v>
+        <v>257182.3815030551</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.15607386971841</v>
+        <v>125.2908057949562</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9332264919659</v>
+        <v>171.4284079288288</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2462659285633</v>
+        <v>155.0675212774307</v>
       </c>
       <c r="AD2" t="n">
-        <v>97156.07386971841</v>
+        <v>125290.8057949562</v>
       </c>
       <c r="AE2" t="n">
-        <v>132933.2264919659</v>
+        <v>171428.4079288288</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.07423718142879e-06</v>
+        <v>7.506507138794931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>120246.2659285633</v>
+        <v>155067.5212774307</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.2563806344732</v>
+        <v>128.2270811565877</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.8069588664969</v>
+        <v>175.4459494179376</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.8457333185787</v>
+        <v>158.7016342454751</v>
       </c>
       <c r="AD2" t="n">
-        <v>99256.3806344732</v>
+        <v>128227.0811565877</v>
       </c>
       <c r="AE2" t="n">
-        <v>135806.9588664969</v>
+        <v>175445.9494179376</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.131811287381563e-06</v>
+        <v>7.38117933242375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.285493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>122845.7333185787</v>
+        <v>158701.6342454751</v>
       </c>
     </row>
   </sheetData>
